--- a/folder/目標.xlsx
+++ b/folder/目標.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souta\Desktop\ITTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43096BDC-BDAD-4436-BE87-0FC8B1112762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7C55A3-DA0A-4C15-BF84-CC6DFF60D9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="2265" windowWidth="20730" windowHeight="11835" xr2:uid="{DFBA48C3-FA7D-445F-9861-B6276B05309A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{DFBA48C3-FA7D-445F-9861-B6276B05309A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
   <si>
     <t>月</t>
   </si>
@@ -75,6 +75,41 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学校</t>
+    <rPh sb="0" eb="2">
+      <t>ガッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学年</t>
+    <rPh sb="0" eb="2">
+      <t>ガクネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教科</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教材</t>
+    <rPh sb="0" eb="2">
+      <t>キョウザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -103,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -152,14 +187,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -171,8 +226,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,238 +568,236 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7136BF48-31A0-45F9-8038-DC3F2733550F}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:H1"/>
@@ -756,6 +812,8 @@
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -766,265 +824,371 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E806A657-3EDC-4F20-8974-B864F4879B5F}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="8" max="9" width="4.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L13"/>
+  <mergeCells count="39">
+    <mergeCell ref="A11:G16"/>
+    <mergeCell ref="H11:N16"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="L2:N2"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:N6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>